--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -55,23 +55,7 @@
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Annually/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">quarter</t>
-    </r>
+    <t xml:space="preserve">Annually/quarters</t>
   </si>
   <si>
     <t xml:space="preserve">rates</t>
@@ -85,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -106,11 +90,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,11 +170,11 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <t xml:space="preserve">Annually/quarters</t>
+    <t xml:space="preserve">Annually/quarter</t>
   </si>
   <si>
     <t xml:space="preserve">rates</t>
@@ -170,11 +170,11 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">frequencyFrom</t>
   </si>
   <si>
+    <t xml:space="preserve">addons</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cigna</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental/Maternity (Consultations, Scans and Delivery)/Optical Benefits/Wellness &amp; Health Screening</t>
   </si>
 </sst>
 </file>
@@ -168,13 +174,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
@@ -205,13 +211,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.6745</v>
@@ -223,13 +232,16 @@
         <v>45657</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">addons</t>
   </si>
   <si>
+    <t xml:space="preserve">multiCurrency</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cigna</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dental/Maternity (Consultations, Scans and Delivery)/Optical Benefits/Wellness &amp; Health Screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD/AED</t>
   </si>
 </sst>
 </file>
@@ -73,7 +79,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -140,9 +146,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -170,78 +180,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" customFormat="false" ht="105.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>3.6745</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>45292</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>45657</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -171,10 +171,10 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">frequencyFrom</t>
   </si>
   <si>
+    <t xml:space="preserve">splitFile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cigna</t>
   </si>
   <si>
@@ -59,17 +62,21 @@
   </si>
   <si>
     <t xml:space="preserve">rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,6 +97,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,8 +146,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,7 +163,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,68 +192,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>3.6745</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="5" t="n">
         <v>45657</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">rates</t>
   </si>
   <si>
-    <t xml:space="preserve">true/</t>
+    <t xml:space="preserve">true</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Inputs/Cigna/info.xlsx
+++ b/Inputs/Cigna/info.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">rates</t>
   </si>
   <si>
-    <t xml:space="preserve">true</t>
+    <t xml:space="preserve">modifiers</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -97,11 +97,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +166,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,10 +190,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
@@ -266,7 +261,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
